--- a/tests/data/xero-report.xlsx
+++ b/tests/data/xero-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orozcoj/workspace-personal/correct-hours/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0564E5-A01E-0743-A31B-4DE4F8450869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2347116-473D-5246-AD79-3F10C7615E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Timesheet Details</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Company ABC</t>
+  </si>
+  <si>
+    <t>Ana Lambert</t>
   </si>
 </sst>
 </file>
@@ -160,10 +163,11 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -538,58 +542,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -720,100 +724,100 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>44166</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>13</v>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>44167</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>44166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>32</v>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
@@ -840,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="J10" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -866,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
@@ -875,16 +879,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -896,12 +900,12 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -910,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -919,19 +923,19 @@
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -940,7 +944,183 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
